--- a/Financials/Quarterly/CVS_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CVS_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23D22C-0A50-48D6-8B21-95A7C192056D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVS" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CVS</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,152 +689,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>54909000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47269000</v>
+      </c>
+      <c r="F8" s="3">
         <v>46708000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>45693000</v>
       </c>
-      <c r="F8" s="3">
-        <v>48385000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>48406000</v>
+      </c>
+      <c r="I8" s="3">
         <v>46181000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>45685000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>44514000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>45971000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>44615000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>38165000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>39941000</v>
+      </c>
+      <c r="F9" s="3">
         <v>39507000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>38834000</v>
       </c>
-      <c r="F9" s="3">
-        <v>40481000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>39055000</v>
-      </c>
       <c r="H9" s="3">
-        <v>38750000</v>
+        <v>37682000</v>
       </c>
       <c r="I9" s="3">
+        <v>39064000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>77509000</v>
+      </c>
+      <c r="K9" s="3">
         <v>37934000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>38365000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>37123000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16744000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7328000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7201000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6859000</v>
       </c>
-      <c r="F10" s="3">
-        <v>7904000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7126000</v>
-      </c>
       <c r="H10" s="3">
-        <v>6935000</v>
+        <v>10724000</v>
       </c>
       <c r="I10" s="3">
+        <v>7117000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-31824000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6580000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7606000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7492000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +870,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +901,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,37 +936,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3921000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>46000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +1006,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +1022,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53600000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44916000</v>
+      </c>
+      <c r="F17" s="3">
         <v>48295000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43747000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>45277000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>43682000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>43568000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>42721000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>42976000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>41892000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2353000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1587000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1946000</v>
       </c>
-      <c r="F18" s="3">
-        <v>3108000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2499000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2117000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1793000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2995000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2723000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1107,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-474000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>220000</v>
+      </c>
+      <c r="F20" s="3">
         <v>211000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>47000</v>
       </c>
-      <c r="F20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-187000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3193000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-729000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2637000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3734000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2927000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2737000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2411000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3629000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3332000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>674000</v>
+      </c>
+      <c r="F22" s="3">
         <v>689000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>523000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>303000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>250000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>251000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>258000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>248000</v>
       </c>
       <c r="K22" s="3">
         <v>258000</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>248000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2065000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1470000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2809000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2062000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1863000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1534000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2753000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2463000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>509000</v>
+      </c>
+      <c r="F24" s="3">
         <v>497000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>472000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1022000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>777000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>766000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>572000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1046000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>921000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1313,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-522000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1390000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2562000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>998000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1787000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1285000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1097000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>962000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1707000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-521000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2562000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>996000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1775000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1282000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1093000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>966000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1698000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,37 +1418,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>1500000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-9000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1488,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1523,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-220000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-211000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-47000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I32" s="3">
         <v>187000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2563000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>996000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3275000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1282000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1094000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>957000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1698000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1534000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1628,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2563000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>996000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3275000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1282000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1094000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>957000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1698000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1534000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1722,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,269 +1737,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4059000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>41587000</v>
+      </c>
+      <c r="F41" s="3">
         <v>43815000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42023000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1696000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2485000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2094000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2217000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3371000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2189000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2522000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F42" s="3">
         <v>96000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>119000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>111000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>75000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>75000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>85000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>87000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17631000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14837000</v>
+      </c>
+      <c r="F43" s="3">
         <v>14158000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13964000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13181000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12440000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12274000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12114000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12164000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>13625000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16450000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>14818000</v>
+      </c>
+      <c r="F44" s="3">
         <v>14922000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>14824000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>15296000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>14147000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14271000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>14306000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>14760000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>14348000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4581000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>634000</v>
+      </c>
+      <c r="F45" s="3">
         <v>799000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>868000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>945000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>776000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>690000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>735000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>660000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45243000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>71981000</v>
+      </c>
+      <c r="F46" s="3">
         <v>73790000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>71798000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>31229000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>29923000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>29404000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>29457000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>31042000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>30939000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>15732000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11349000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10419000</v>
+      </c>
+      <c r="F48" s="3">
         <v>10249000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10144000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>10292000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9914000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10073000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10057000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10175000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9901000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>115202000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>47382000</v>
+      </c>
+      <c r="F49" s="3">
         <v>47542000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>51503000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>52081000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>51472000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>51484000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>51653000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>51760000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>51781000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2083,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +2118,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8930000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1724000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1709000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1694000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1529000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1544000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1564000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1503000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1485000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2188,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>196456000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>131506000</v>
+      </c>
+      <c r="F54" s="3">
         <v>133290000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>135139000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95131000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>92853000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>92525000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>92670000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>94462000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>94156000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2242,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,182 +2257,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8925000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8813000</v>
+      </c>
+      <c r="F57" s="3">
         <v>8570000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7741000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8863000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7899000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7874000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7344000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7946000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7584000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1985000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2139000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3540000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3542000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4821000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2403000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1142000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1811000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1916000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1123000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33099000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18508000</v>
+      </c>
+      <c r="F59" s="3">
         <v>19383000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18965000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16964000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18211000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17841000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18133000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16388000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18034000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44009000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29460000</v>
+      </c>
+      <c r="F60" s="3">
         <v>31493000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>30248000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>30648000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>28513000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>26857000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>27288000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>26250000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26741000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71444000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>60747000</v>
+      </c>
+      <c r="F61" s="3">
         <v>61569000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>61552000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>22181000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>23386000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>25622000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>25622000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>25615000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>25610000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22460000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4677000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4617000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4662000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4607000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>6086000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5899000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5918000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5763000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5851000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2498,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2533,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2568,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>138231000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94888000</v>
+      </c>
+      <c r="F66" s="3">
         <v>97683000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>96466000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>57440000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>57990000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>58383000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>58833000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>57632000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>58207000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2622,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2653,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2688,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2723,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2758,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40911000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>41843000</v>
+      </c>
+      <c r="F72" s="3">
         <v>40965000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>44040000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>43556000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>40779000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>40005000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>39419000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>38983000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>37732000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2828,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2863,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2898,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58225000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>36618000</v>
+      </c>
+      <c r="F76" s="3">
         <v>35607000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>38673000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>37691000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>34863000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>34142000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>33837000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>36830000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>35949000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2968,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2563000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>996000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3275000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1282000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1094000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>957000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1698000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1534000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3062,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>807000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>620000</v>
+      </c>
+      <c r="F83" s="3">
         <v>647000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>644000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>622000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>615000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>623000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>619000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>628000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3128,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3163,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3198,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3233,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3268,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2934000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2355000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-136000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2611000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1999000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3533000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2121000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3934000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3322,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-585000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-430000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-482000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-506000</v>
       </c>
-      <c r="G91" s="3">
-        <v>364000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-862000</v>
-      </c>
       <c r="I91" s="3">
+        <v>-524000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-431000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-914000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1234000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1010000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3388,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3423,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41899000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-634000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-621000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-131000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1324000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-474000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-1310000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-433000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-597000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-537000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-818000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-421000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3477,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2987,28 +3488,34 @@
         <v>-510000</v>
       </c>
       <c r="E96" s="3">
-        <v>-508000</v>
+        <v>-510000</v>
       </c>
       <c r="F96" s="3">
         <v>-510000</v>
       </c>
       <c r="G96" s="3">
+        <v>-508000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-510000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-511000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-512000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-516000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-456000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-455000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3543,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3578,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,55 +3613,67 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1892000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2693000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-520000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>38140000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>670000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1786000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1502000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4133000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-121000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2442000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3152,33 +3683,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37532000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2230000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1793000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>40364000</v>
       </c>
-      <c r="F102" s="3">
-        <v>-789000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>351000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-775000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>392000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1137000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1182000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1062000</v>
       </c>
     </row>

--- a/Financials/Quarterly/CVS_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CVS_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23D22C-0A50-48D6-8B21-95A7C192056D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CVS" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>CVS</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,176 +654,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64810000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>63431000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>61646000</v>
+      </c>
+      <c r="G8" s="3">
         <v>54909000</v>
       </c>
-      <c r="E8" s="3">
-        <v>47269000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>46708000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45693000</v>
-      </c>
       <c r="H8" s="3">
+        <v>47490000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>46922000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45743000</v>
+      </c>
+      <c r="K8" s="3">
         <v>48406000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>46181000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>45685000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>44514000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>45971000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>44615000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40437000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>38970000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>37247000</v>
+      </c>
+      <c r="G9" s="3">
         <v>38165000</v>
       </c>
-      <c r="E9" s="3">
-        <v>39941000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>39507000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>38834000</v>
-      </c>
       <c r="H9" s="3">
+        <v>39502000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>38876000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>76339000</v>
+      </c>
+      <c r="K9" s="3">
         <v>37682000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>39064000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>77509000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>37934000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>38365000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>37123000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24373000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24461000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>24399000</v>
+      </c>
+      <c r="G10" s="3">
         <v>16744000</v>
       </c>
-      <c r="E10" s="3">
-        <v>7328000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7201000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6859000</v>
-      </c>
       <c r="H10" s="3">
+        <v>7988000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8046000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-30596000</v>
+      </c>
+      <c r="K10" s="3">
         <v>10724000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>7117000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>-31824000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>6580000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>7606000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>7492000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +873,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +911,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -942,43 +955,61 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>108000</v>
+      </c>
+      <c r="G14" s="3">
         <v>2228000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3921000</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>46000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>135000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>101000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,8 +1043,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,78 +1064,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61961000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>60099000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>58956000</v>
+      </c>
+      <c r="G17" s="3">
         <v>53600000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>44916000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>48295000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>43747000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>45277000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>43682000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>43568000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>42721000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>42976000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>41892000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2849000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3332000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2690000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1309000</v>
       </c>
-      <c r="E18" s="3">
-        <v>2353000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1587000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1946000</v>
-      </c>
       <c r="H18" s="3">
+        <v>2574000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1373000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1996000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3129000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>2499000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>2117000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1793000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>2995000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>2723000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,183 +1170,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-474000</v>
       </c>
-      <c r="E20" s="3">
-        <v>220000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>211000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>47000</v>
-      </c>
       <c r="H20" s="3">
-        <v>-17000</v>
+        <v>-1000</v>
       </c>
       <c r="I20" s="3">
-        <v>-187000</v>
+        <v>-3000</v>
       </c>
       <c r="J20" s="3">
         <v>-3000</v>
       </c>
       <c r="K20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3972000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4435000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3832000</v>
+      </c>
+      <c r="G21" s="3">
         <v>1642000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>3193000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-729000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>2637000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>3734000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>2927000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>2737000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2411000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>3629000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>3332000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>772000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>782000</v>
+      </c>
+      <c r="G22" s="3">
         <v>733000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>674000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>689000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>523000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>303000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>250000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>251000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>258000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>248000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>258000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2133000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2591000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1939000</v>
+      </c>
+      <c r="G23" s="3">
         <v>102000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>1899000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-2065000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>1470000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>2809000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2062000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1863000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1534000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>2753000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>2463000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>660000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>512000</v>
+      </c>
+      <c r="G24" s="3">
         <v>624000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>509000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>497000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>472000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>1022000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>777000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>766000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>572000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>1046000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>921000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1319,78 +1428,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1931000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-522000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>1390000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-2562000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>998000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>1787000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1285000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1097000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>962000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>1707000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-521000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>1389000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-2562000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>996000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>1775000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1282000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>1093000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>966000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>1698000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1424,43 +1560,61 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>101000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1500000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>-9000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1494,8 +1648,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1529,78 +1692,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="G32" s="3">
         <v>474000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-220000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-211000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-47000</v>
-      </c>
       <c r="H32" s="3">
-        <v>17000</v>
+        <v>1000</v>
       </c>
       <c r="I32" s="3">
-        <v>187000</v>
+        <v>3000</v>
       </c>
       <c r="J32" s="3">
         <v>3000</v>
       </c>
       <c r="K32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>187000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-420000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>1389000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-2563000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>996000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>3275000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1282000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1094000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>957000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>1698000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1534000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1634,83 +1824,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-420000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>1389000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-2563000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>996000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>3275000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1282000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1094000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>957000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>1698000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1534000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1724,8 +1941,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1739,232 +1959,289 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5193000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6063000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5896000</v>
+      </c>
+      <c r="G41" s="3">
         <v>4059000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>41587000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>43815000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>42023000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>1696000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2485000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2094000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>2217000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>3371000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>2189000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2334000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2462000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2426000</v>
+      </c>
+      <c r="G42" s="3">
         <v>2522000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>105000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>96000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>119000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>111000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>75000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>75000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>85000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>87000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19789000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18174000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>19509000</v>
+      </c>
+      <c r="G43" s="3">
         <v>17631000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>14837000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>14158000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>13964000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>13181000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>12440000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>12274000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>12114000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>12164000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>13625000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16028000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15511000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>15448000</v>
+      </c>
+      <c r="G44" s="3">
         <v>16450000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>14818000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>14922000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>14824000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>15296000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>14147000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>14271000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>14306000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>14760000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>14348000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4841000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4691000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4578000</v>
+      </c>
+      <c r="G45" s="3">
         <v>4581000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>634000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>799000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>868000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>945000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>776000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>690000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>735000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>660000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48185000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46901000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>47857000</v>
+      </c>
+      <c r="G46" s="3">
         <v>45243000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>71981000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>73790000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>71798000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>31229000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>29923000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>29404000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>29457000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>31042000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>30939000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17342000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>16973000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>16410000</v>
+      </c>
+      <c r="G47" s="3">
         <v>15732000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -1975,87 +2252,114 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32408000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>32348000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>32340000</v>
+      </c>
+      <c r="G48" s="3">
         <v>11349000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>10419000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>10249000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>10144000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>10292000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>9914000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>10073000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>10057000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>10175000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>9901000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>113203000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>113648000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>114222000</v>
+      </c>
+      <c r="G49" s="3">
         <v>115202000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>47382000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>47542000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>51503000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>52081000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>51472000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>51484000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>51653000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>51760000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>51781000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2089,8 +2393,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2124,43 +2437,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8975000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9034000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8939000</v>
+      </c>
+      <c r="G52" s="3">
         <v>8930000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>1724000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>1709000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>1694000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>1529000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1544000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1564000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1503000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1485000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2194,43 +2525,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>220113000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>218904000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>219768000</v>
+      </c>
+      <c r="G54" s="3">
         <v>196456000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>131506000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>133290000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>135139000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>95131000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>92853000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>92525000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>92670000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>94462000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>94156000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2244,8 +2593,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2259,218 +2611,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8925000</v>
+        <v>29555000</v>
       </c>
       <c r="E57" s="3">
-        <v>8813000</v>
+        <v>27986000</v>
       </c>
       <c r="F57" s="3">
-        <v>8570000</v>
+        <v>26818000</v>
       </c>
       <c r="G57" s="3">
-        <v>7741000</v>
+        <v>26437000</v>
       </c>
       <c r="H57" s="3">
+        <v>21161000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>20313000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>18982000</v>
+      </c>
+      <c r="K57" s="3">
         <v>8863000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>7899000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>7874000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>7344000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>7946000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>7584000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4848000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6898000</v>
+      </c>
+      <c r="G58" s="3">
         <v>1985000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>2139000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>3540000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>3542000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>4821000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>2403000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>1142000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>1811000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>1916000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>1123000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33099000</v>
+        <v>18141000</v>
       </c>
       <c r="E59" s="3">
-        <v>18508000</v>
+        <v>17050000</v>
       </c>
       <c r="F59" s="3">
-        <v>19383000</v>
+        <v>16915000</v>
       </c>
       <c r="G59" s="3">
-        <v>18965000</v>
+        <v>15587000</v>
       </c>
       <c r="H59" s="3">
+        <v>6160000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7640000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7724000</v>
+      </c>
+      <c r="K59" s="3">
         <v>16964000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>18211000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>17841000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>18133000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>16388000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>18034000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52544000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>49376000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>50631000</v>
+      </c>
+      <c r="G60" s="3">
         <v>44009000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>29460000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>31493000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>30248000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>30648000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>28513000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>26857000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>27288000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>26250000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>26741000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>64206000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>66941000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>67888000</v>
+      </c>
+      <c r="G61" s="3">
         <v>71444000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>60747000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>61569000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>61552000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>22181000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>23386000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>25622000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>25622000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>25615000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>25610000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40430000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>40988000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>41243000</v>
+      </c>
+      <c r="G62" s="3">
         <v>22460000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>4677000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>4617000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>4662000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>4607000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>6086000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>5899000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>5918000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>5763000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>5851000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2504,8 +2913,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2539,8 +2957,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2574,43 +3001,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>157499000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>157622000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>160082000</v>
+      </c>
+      <c r="G66" s="3">
         <v>138231000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>94888000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>97683000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>96466000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>57440000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>57990000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>58383000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>58833000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>57632000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>58207000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2624,8 +3069,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2659,8 +3107,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2694,8 +3151,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2729,8 +3195,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2764,43 +3239,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>44017000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>43136000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>41859000</v>
+      </c>
+      <c r="G72" s="3">
         <v>40911000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>41843000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>40965000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>44040000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>43556000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>40779000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>40005000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>39419000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>38983000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>37732000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2834,8 +3327,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2869,8 +3371,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2904,43 +3415,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62614000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>61282000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>59686000</v>
+      </c>
+      <c r="G76" s="3">
         <v>58225000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>36618000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>35607000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>38673000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>37691000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>34863000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>34142000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>33837000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>36830000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>35949000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2974,83 +3503,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-420000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>1389000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-2563000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>996000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>3275000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1282000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1094000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>957000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>1698000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1534000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3064,43 +3620,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="G83" s="3">
         <v>807000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>620000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>647000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>644000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>622000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>615000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>623000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>619000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>628000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3134,8 +3702,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3169,8 +3746,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3204,8 +3790,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3239,8 +3834,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3274,43 +3878,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2928000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5338000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1948000</v>
+      </c>
+      <c r="G89" s="3">
         <v>2479000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>1097000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>2934000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>2355000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-136000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>2611000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>1999000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>3533000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>2121000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>3934000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3324,43 +3946,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-601000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-716000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-585000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-540000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-430000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-482000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-506000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-524000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-431000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-914000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1234000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-1010000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3394,8 +4028,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3429,43 +4072,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-829000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-910000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-891000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-41899000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-634000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-621000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-131000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-433000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-597000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-537000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-818000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-421000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3479,43 +4140,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-646000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-657000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-649000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-510000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-510000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-510000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-508000</v>
       </c>
       <c r="H96" s="3">
         <v>-510000</v>
       </c>
       <c r="I96" s="3">
+        <v>-510000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-508000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-510000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-511000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-512000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-516000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-456000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-455000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3549,8 +4222,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3584,8 +4266,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3619,109 +4310,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2968000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4258000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>816000</v>
+      </c>
+      <c r="G100" s="3">
         <v>1892000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-2693000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-520000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>38140000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>670000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-1786000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-1502000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-4133000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-121000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-2442000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-869000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1873000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-37532000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-2230000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>1793000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>40364000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-775000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>392000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-100000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-1137000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1182000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>1062000</v>
       </c>
     </row>
